--- a/EKtracking/TestCases-EKTRACKING phase.xlsx
+++ b/EKtracking/TestCases-EKTRACKING phase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Documents\Ektracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Doc\EKtracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="197">
   <si>
     <t>Project Test Document</t>
   </si>
@@ -581,6 +581,54 @@
   </si>
   <si>
     <t>Check if the link has been sent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the code is working </t>
+  </si>
+  <si>
+    <t>Validate that the user roles are specified(Seperated)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the  role of the user in a the team. </t>
+  </si>
+  <si>
+    <t>The role of the user should be "Admin" for the created team and "Member" for the joined team.</t>
+  </si>
+  <si>
+    <t>Validate that the user's functionalitises are limited by their roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For admin user of the team </t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>the admin user should be able to view the QR code and the code of the team and share them to add new team members.</t>
+  </si>
+  <si>
+    <t>the admin should be able to remove members from their team</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>the admin should be able to update the team profile.</t>
+  </si>
+  <si>
+    <t>for member user of the team</t>
+  </si>
+  <si>
+    <t>the member user should not be able to view the QR code and the code of the team and share them to add new team members.</t>
+  </si>
+  <si>
+    <t>the member  user should not be able to remove members from their team</t>
+  </si>
+  <si>
+    <t>the member user should not be able to update the team profile.</t>
   </si>
 </sst>
 </file>
@@ -1340,12 +1388,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1364,6 +1451,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1373,23 +1475,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1397,9 +1487,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1438,6 +1525,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1450,12 +1543,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1470,45 +1557,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1868,235 +1916,246 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16">
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
     </row>
     <row r="4" spans="3:16">
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="3:16">
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87" t="s">
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
     </row>
     <row r="6" spans="3:16">
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87" t="s">
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87" t="s">
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
     </row>
     <row r="8" spans="3:16">
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87" t="s">
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
     </row>
     <row r="9" spans="3:16">
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87" t="s">
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
     </row>
     <row r="10" spans="3:16">
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87" t="s">
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
     </row>
     <row r="11" spans="3:16">
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
     </row>
     <row r="12" spans="3:16">
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
     </row>
     <row r="13" spans="3:16">
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87" t="s">
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
     </row>
     <row r="14" spans="3:16">
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:P5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:P6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:P8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:P9"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="G13:P13"/>
     <mergeCell ref="C14:F14"/>
@@ -2107,17 +2166,6 @@
     <mergeCell ref="G11:P11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="G12:P12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:P7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:P8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:P9"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:P5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:P6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2158,43 +2206,43 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="3:16">
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89" t="s">
+      <c r="D5" s="101"/>
+      <c r="E5" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89" t="s">
+      <c r="F5" s="102"/>
+      <c r="G5" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="90" t="s">
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
     </row>
     <row r="6" spans="3:16">
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92">
+      <c r="D6" s="104"/>
+      <c r="E6" s="105">
         <v>42746</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93" t="s">
+      <c r="F6" s="105"/>
+      <c r="G6" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
       <c r="J6" s="3" t="s">
         <v>25</v>
       </c>
@@ -2263,26 +2311,26 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="3:10">
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
     </row>
     <row r="5" spans="3:10" ht="16.5">
       <c r="C5" s="7" t="s">
@@ -2311,13 +2359,13 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C6" s="95">
+      <c r="C6" s="113">
         <v>1</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="114" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -2331,9 +2379,9 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="3:10" ht="16.5">
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
       <c r="F7" s="13" t="s">
         <v>39</v>
       </c>
@@ -2345,9 +2393,9 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="3:10" ht="16.5">
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="16" t="s">
         <v>41</v>
       </c>
@@ -2361,13 +2409,13 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C9" s="97">
+      <c r="C9" s="109">
         <v>2</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="20" t="s">
         <v>37</v>
       </c>
@@ -2379,9 +2427,9 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="3:10" ht="16.5">
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="99"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="23" t="s">
         <v>39</v>
       </c>
@@ -2393,9 +2441,9 @@
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="3:10" ht="16.5">
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="99"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="16" t="s">
         <v>41</v>
       </c>
@@ -2409,13 +2457,13 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="3:10" ht="16.5">
-      <c r="C12" s="100">
+      <c r="C12" s="107">
         <v>3</v>
       </c>
-      <c r="D12" s="101" t="s">
+      <c r="D12" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="108" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="26" t="s">
@@ -2429,9 +2477,9 @@
       <c r="J12" s="28"/>
     </row>
     <row r="13" spans="3:10" ht="16.5">
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="23" t="s">
         <v>39</v>
       </c>
@@ -2443,9 +2491,9 @@
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="3:10" ht="33">
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="23" t="s">
         <v>41</v>
       </c>
@@ -2459,13 +2507,13 @@
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="3:10" ht="33" customHeight="1">
-      <c r="C15" s="97">
+      <c r="C15" s="109">
         <v>4</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="102"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="20" t="s">
         <v>37</v>
       </c>
@@ -2477,9 +2525,9 @@
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="3:10" ht="16.5">
-      <c r="C16" s="97"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="102"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="23" t="s">
         <v>39</v>
       </c>
@@ -2493,9 +2541,9 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10" ht="16.5">
-      <c r="C17" s="97"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="102"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="13" t="s">
         <v>41</v>
       </c>
@@ -2509,9 +2557,9 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10" ht="16.5">
-      <c r="C18" s="97"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="102"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="16" t="s">
         <v>55</v>
       </c>
@@ -2540,12 +2588,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
     <mergeCell ref="C3:J4"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
@@ -2553,6 +2595,12 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -2603,26 +2651,26 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
     </row>
     <row r="5" spans="3:10" ht="16.5">
       <c r="C5" s="35" t="s">
@@ -2651,67 +2699,67 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C6" s="97">
+      <c r="C6" s="109">
         <v>1</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="F6" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="107" t="s">
+      <c r="G6" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="106"/>
-      <c r="J6" s="108"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="121"/>
     </row>
     <row r="7" spans="3:10" ht="49.5" customHeight="1">
-      <c r="C7" s="97"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="121"/>
     </row>
     <row r="8" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C8" s="97"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="109" t="s">
+      <c r="C8" s="109"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="110" t="s">
+      <c r="G8" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="110" t="s">
+      <c r="H8" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="111"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="124"/>
     </row>
     <row r="9" spans="3:10" ht="126.75" customHeight="1">
-      <c r="C9" s="97"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="111"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="124"/>
     </row>
     <row r="10" spans="3:10" ht="71.25" customHeight="1">
-      <c r="C10" s="97"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105" t="s">
+      <c r="C10" s="109"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="116" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="37" t="s">
@@ -2727,9 +2775,9 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="3:10" ht="137.25" customHeight="1">
-      <c r="C11" s="97"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="116"/>
       <c r="F11" s="38" t="s">
         <v>73</v>
       </c>
@@ -2743,9 +2791,9 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="3:10" ht="52.5" customHeight="1">
-      <c r="C12" s="97"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="103" t="s">
+      <c r="C12" s="109"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="117" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="37" t="s">
@@ -2761,9 +2809,9 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="3:10" ht="62.25" customHeight="1">
-      <c r="C13" s="97"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="117"/>
       <c r="F13" s="39" t="s">
         <v>80</v>
       </c>
@@ -2777,9 +2825,9 @@
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="3:10" ht="33">
-      <c r="C14" s="97"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="100"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="37" t="s">
         <v>82</v>
       </c>
@@ -2793,9 +2841,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="3:10" ht="33">
-      <c r="C15" s="97"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="39" t="s">
         <v>85</v>
       </c>
@@ -2809,8 +2857,8 @@
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="3:10" ht="16.5">
-      <c r="C16" s="97"/>
-      <c r="D16" s="104"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="40" t="s">
         <v>88</v>
       </c>
@@ -2825,8 +2873,8 @@
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="3:10" ht="16.5">
-      <c r="C17" s="97"/>
-      <c r="D17" s="104"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="40"/>
       <c r="F17" s="19">
         <v>6</v>
@@ -2839,8 +2887,8 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="3:10" ht="16.5">
-      <c r="C18" s="97"/>
-      <c r="D18" s="104"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="40" t="s">
         <v>88</v>
       </c>
@@ -2856,6 +2904,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E14:E15"/>
@@ -2872,7 +2921,6 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -2916,26 +2964,26 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="2:10" s="6" customFormat="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="2:10" s="6" customFormat="1">
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="2:10" s="6" customFormat="1">
       <c r="B4" s="44" t="s">
@@ -2961,10 +3009,10 @@
       </c>
     </row>
     <row r="5" spans="2:10" s="6" customFormat="1" ht="30">
-      <c r="B5" s="115">
+      <c r="B5" s="128">
         <v>1</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="126" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="56">
@@ -2978,8 +3026,8 @@
       <c r="H5" s="56"/>
     </row>
     <row r="6" spans="2:10" s="6" customFormat="1" ht="45">
-      <c r="B6" s="116"/>
-      <c r="C6" s="114"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="127"/>
       <c r="D6" s="56">
         <v>1</v>
       </c>
@@ -3002,10 +3050,10 @@
       <c r="H7" s="56"/>
     </row>
     <row r="8" spans="2:10" ht="45">
-      <c r="B8" s="115">
+      <c r="B8" s="128">
         <v>2</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="126" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="56">
@@ -3019,8 +3067,8 @@
       <c r="H8" s="56"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="118"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="130"/>
       <c r="D9" s="56">
         <v>1</v>
       </c>
@@ -3032,8 +3080,8 @@
       <c r="H9" s="56"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="118"/>
-      <c r="C10" s="117"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="130"/>
       <c r="D10" s="56">
         <v>2</v>
       </c>
@@ -3045,8 +3093,8 @@
       <c r="H10" s="56"/>
     </row>
     <row r="11" spans="2:10" ht="30">
-      <c r="B11" s="118"/>
-      <c r="C11" s="117"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="130"/>
       <c r="D11" s="61">
         <v>3</v>
       </c>
@@ -3274,24 +3322,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="43" t="s">
@@ -3317,10 +3365,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.2" customHeight="1">
-      <c r="B5" s="119">
+      <c r="B5" s="134">
         <v>1</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="135" t="s">
         <v>95</v>
       </c>
       <c r="D5" s="46">
@@ -3336,30 +3384,30 @@
       <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="121"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="122">
+      <c r="A6" s="136"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="137">
         <v>2</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="123" t="s">
+      <c r="F6" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
     </row>
     <row r="7" spans="1:8" ht="3.6" customHeight="1">
-      <c r="A7" s="121"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="50"/>
@@ -3371,10 +3419,10 @@
       <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="124">
+      <c r="B9" s="132">
         <v>2</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="132" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="46">
@@ -3390,8 +3438,8 @@
       <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="46">
         <v>2</v>
       </c>
@@ -3414,10 +3462,10 @@
       <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:8" ht="45">
-      <c r="B12" s="124">
+      <c r="B12" s="132">
         <v>3</v>
       </c>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="133" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="46">
@@ -3431,8 +3479,8 @@
       <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="124"/>
-      <c r="C13" s="125"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="46" t="s">
         <v>70</v>
       </c>
@@ -3444,8 +3492,8 @@
       <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" ht="45">
-      <c r="B14" s="124"/>
-      <c r="C14" s="125"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="46" t="s">
         <v>73</v>
       </c>
@@ -3459,8 +3507,8 @@
       <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="124"/>
-      <c r="C15" s="125"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="46" t="s">
         <v>77</v>
       </c>
@@ -3472,8 +3520,8 @@
       <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:8" ht="45">
-      <c r="B16" s="124"/>
-      <c r="C16" s="125"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="46" t="s">
         <v>80</v>
       </c>
@@ -3498,10 +3546,10 @@
       <c r="H17" s="47"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="124">
+      <c r="B18" s="132">
         <v>4</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="132" t="s">
         <v>111</v>
       </c>
       <c r="D18" s="46">
@@ -3515,8 +3563,8 @@
       <c r="H18" s="47"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
       <c r="D19" s="48">
         <v>2</v>
       </c>
@@ -3540,12 +3588,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -3555,6 +3597,12 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -3584,24 +3632,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="44" t="s">
@@ -3627,10 +3675,10 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="124">
+      <c r="B5" s="132">
         <v>1</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="133" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="46">
@@ -3644,8 +3692,8 @@
       <c r="H5" s="74"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="128"/>
-      <c r="C6" s="126"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="46">
         <v>1</v>
       </c>
@@ -3657,8 +3705,8 @@
       <c r="H6" s="74"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="128"/>
-      <c r="C7" s="126"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="46">
         <v>2</v>
       </c>
@@ -3670,8 +3718,8 @@
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="2:8" ht="48" customHeight="1">
-      <c r="B8" s="129"/>
-      <c r="C8" s="127"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="46">
         <v>3</v>
       </c>
@@ -4243,24 +4291,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="80" t="s">
@@ -4286,10 +4334,10 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="124">
+      <c r="B5" s="132">
         <v>1</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="C5" s="133" t="s">
         <v>135</v>
       </c>
       <c r="D5" s="83">
@@ -4303,8 +4351,8 @@
       <c r="H5" s="69"/>
     </row>
     <row r="6" spans="2:8" ht="30">
-      <c r="B6" s="128"/>
-      <c r="C6" s="126"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="83">
         <v>1</v>
       </c>
@@ -4316,8 +4364,8 @@
       <c r="H6" s="69"/>
     </row>
     <row r="7" spans="2:8" s="77" customFormat="1">
-      <c r="B7" s="128"/>
-      <c r="C7" s="126"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="83">
         <v>2</v>
       </c>
@@ -4329,8 +4377,8 @@
       <c r="H7" s="69"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="129"/>
-      <c r="C8" s="127"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="140"/>
       <c r="D8" s="83">
         <v>3</v>
       </c>
@@ -4351,10 +4399,10 @@
       <c r="H9" s="69"/>
     </row>
     <row r="10" spans="2:8" ht="30">
-      <c r="B10" s="124">
+      <c r="B10" s="132">
         <v>2</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="133" t="s">
         <v>138</v>
       </c>
       <c r="D10" s="83">
@@ -4368,8 +4416,8 @@
       <c r="H10" s="69"/>
     </row>
     <row r="11" spans="2:8" ht="30">
-      <c r="B11" s="128"/>
-      <c r="C11" s="126"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="139"/>
       <c r="D11" s="83">
         <v>1</v>
       </c>
@@ -4381,8 +4429,8 @@
       <c r="H11" s="69"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="128"/>
-      <c r="C12" s="126"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="83">
         <v>2</v>
       </c>
@@ -4394,8 +4442,8 @@
       <c r="H12" s="69"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="128"/>
-      <c r="C13" s="126"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="83">
         <v>3</v>
       </c>
@@ -4407,8 +4455,8 @@
       <c r="H13" s="69"/>
     </row>
     <row r="14" spans="2:8" ht="45">
-      <c r="B14" s="128"/>
-      <c r="C14" s="126"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="139"/>
       <c r="D14" s="83">
         <v>4</v>
       </c>
@@ -4420,8 +4468,8 @@
       <c r="H14" s="69"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="129"/>
-      <c r="C15" s="127"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="140"/>
       <c r="D15" s="83">
         <v>5</v>
       </c>
@@ -4442,16 +4490,16 @@
       <c r="H16" s="69"/>
     </row>
     <row r="17" spans="2:8" ht="30">
-      <c r="B17" s="131">
+      <c r="B17" s="86">
         <v>3</v>
       </c>
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="133">
+      <c r="D17" s="88">
         <v>0</v>
       </c>
-      <c r="E17" s="134" t="s">
+      <c r="E17" s="89" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="69"/>
@@ -4459,12 +4507,12 @@
       <c r="H17" s="69"/>
     </row>
     <row r="18" spans="2:8" ht="30">
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="133">
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="88">
         <v>1</v>
       </c>
-      <c r="E18" s="134" t="s">
+      <c r="E18" s="89" t="s">
         <v>136</v>
       </c>
       <c r="F18" s="69"/>
@@ -4750,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4760,33 +4808,33 @@
     <col min="3" max="3" width="51.85546875" style="81" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="84" customWidth="1"/>
     <col min="5" max="5" width="42.42578125" style="70" customWidth="1"/>
-    <col min="6" max="6" width="55.28515625" style="139" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" style="94" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="36.85546875" style="81" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
     </row>
     <row r="4" spans="2:8" s="81" customFormat="1">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="90" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="80" t="s">
@@ -4795,7 +4843,7 @@
       <c r="D4" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="90" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="80" t="s">
@@ -4809,939 +4857,1016 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="140">
+      <c r="B5" s="95">
         <v>1</v>
       </c>
       <c r="C5" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="142">
+      <c r="D5" s="97">
         <v>0</v>
       </c>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="137"/>
-      <c r="G5" s="136"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="51"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="140"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="85"/>
-      <c r="D6" s="142">
+      <c r="D6" s="97">
         <v>1</v>
       </c>
-      <c r="E6" s="140" t="s">
+      <c r="E6" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="137"/>
-      <c r="G6" s="136"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="91"/>
       <c r="H6" s="51"/>
     </row>
     <row r="7" spans="2:8" ht="30">
-      <c r="B7" s="140"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="85"/>
-      <c r="D7" s="142">
+      <c r="D7" s="97">
         <v>2.1</v>
       </c>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="137"/>
-      <c r="G7" s="136"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="51"/>
     </row>
     <row r="8" spans="2:8" ht="30">
-      <c r="B8" s="140"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="85"/>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="143" t="s">
+      <c r="F8" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="136"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="51"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="140"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="85"/>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="F9" s="137" t="s">
+      <c r="F9" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="136"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="51"/>
     </row>
     <row r="10" spans="2:8" ht="30">
-      <c r="B10" s="140"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="85"/>
-      <c r="D10" s="142" t="s">
+      <c r="D10" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="140" t="s">
+      <c r="E10" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="137" t="s">
+      <c r="F10" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="G10" s="136"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="51"/>
     </row>
     <row r="11" spans="2:8" ht="30">
-      <c r="B11" s="140"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="85"/>
-      <c r="D11" s="142">
+      <c r="D11" s="97">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="137"/>
-      <c r="G11" s="136"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="51"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="140"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="85"/>
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="140" t="s">
+      <c r="E12" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="137" t="s">
+      <c r="F12" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="136"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="51"/>
     </row>
     <row r="13" spans="2:8" ht="30">
-      <c r="B13" s="140"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="85"/>
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="140" t="s">
+      <c r="E13" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="136"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="140"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="85"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="136"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="91"/>
       <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:8" ht="30">
-      <c r="B15" s="140">
+      <c r="B15" s="95">
         <v>2</v>
       </c>
       <c r="C15" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="142">
+      <c r="D15" s="97">
         <v>0</v>
       </c>
-      <c r="E15" s="140" t="s">
+      <c r="E15" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="137"/>
-      <c r="G15" s="136"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="91"/>
       <c r="H15" s="51"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="140"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="85"/>
-      <c r="D16" s="142">
+      <c r="D16" s="97">
         <v>1</v>
       </c>
-      <c r="E16" s="140" t="s">
+      <c r="E16" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="137"/>
-      <c r="G16" s="136"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="51"/>
     </row>
     <row r="17" spans="2:8" ht="30">
-      <c r="B17" s="140"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="85"/>
-      <c r="D17" s="142">
+      <c r="D17" s="97">
         <v>2.1</v>
       </c>
-      <c r="E17" s="140" t="s">
+      <c r="E17" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="F17" s="137"/>
-      <c r="G17" s="136"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="91"/>
       <c r="H17" s="51"/>
     </row>
     <row r="18" spans="2:8" ht="30">
-      <c r="B18" s="140"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="85"/>
-      <c r="D18" s="142" t="s">
+      <c r="D18" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="143" t="s">
+      <c r="F18" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="136"/>
+      <c r="G18" s="91"/>
       <c r="H18" s="51"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="140"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="85"/>
-      <c r="D19" s="142" t="s">
+      <c r="D19" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="140" t="s">
+      <c r="E19" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="137" t="s">
+      <c r="F19" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="136"/>
+      <c r="G19" s="91"/>
       <c r="H19" s="51"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="140"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="85"/>
-      <c r="D20" s="142" t="s">
+      <c r="D20" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="140" t="s">
+      <c r="E20" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="137" t="s">
+      <c r="F20" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="136"/>
+      <c r="G20" s="91"/>
       <c r="H20" s="51"/>
     </row>
     <row r="21" spans="2:8" ht="30">
-      <c r="B21" s="140"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="85"/>
-      <c r="D21" s="142" t="s">
+      <c r="D21" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="140" t="s">
+      <c r="E21" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="137" t="s">
+      <c r="F21" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="G21" s="136"/>
+      <c r="G21" s="91"/>
       <c r="H21" s="51"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="140"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="85"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="136"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="91"/>
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="2:8" ht="30">
-      <c r="B23" s="140">
+      <c r="B23" s="95">
         <v>3</v>
       </c>
       <c r="C23" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="142">
+      <c r="D23" s="97">
         <v>0</v>
       </c>
-      <c r="E23" s="140" t="s">
+      <c r="E23" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="137"/>
-      <c r="G23" s="136"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="91"/>
       <c r="H23" s="51"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="140"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="85"/>
-      <c r="D24" s="142">
+      <c r="D24" s="97">
         <v>1</v>
       </c>
-      <c r="E24" s="140" t="s">
+      <c r="E24" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="143"/>
-      <c r="G24" s="136"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="91"/>
       <c r="H24" s="51"/>
     </row>
     <row r="25" spans="2:8" ht="30">
-      <c r="B25" s="140"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="85"/>
-      <c r="D25" s="142">
+      <c r="D25" s="97">
         <v>2</v>
       </c>
-      <c r="E25" s="140" t="s">
+      <c r="E25" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="143" t="s">
+      <c r="F25" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="136"/>
+      <c r="G25" s="91"/>
       <c r="H25" s="51"/>
     </row>
     <row r="26" spans="2:8" ht="30">
-      <c r="B26" s="140"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="85"/>
-      <c r="D26" s="142">
+      <c r="D26" s="97">
         <v>3</v>
       </c>
-      <c r="E26" s="140" t="s">
+      <c r="E26" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="137" t="s">
+      <c r="F26" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="G26" s="136"/>
+      <c r="G26" s="91"/>
       <c r="H26" s="51"/>
     </row>
     <row r="27" spans="2:8" ht="30">
-      <c r="B27" s="140"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="85"/>
-      <c r="D27" s="142">
+      <c r="D27" s="97">
         <v>4</v>
       </c>
-      <c r="E27" s="140" t="s">
+      <c r="E27" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="F27" s="137" t="s">
+      <c r="F27" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="136"/>
+      <c r="G27" s="91"/>
       <c r="H27" s="51"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="140"/>
+      <c r="B28" s="95"/>
       <c r="C28" s="85"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="136"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="51"/>
     </row>
     <row r="29" spans="2:8" ht="30">
-      <c r="B29" s="140">
+      <c r="B29" s="95">
         <v>4</v>
       </c>
       <c r="C29" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="142">
+      <c r="D29" s="97">
         <v>0</v>
       </c>
-      <c r="E29" s="140" t="s">
+      <c r="E29" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="137"/>
-      <c r="G29" s="136"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="91"/>
       <c r="H29" s="51"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="140"/>
+      <c r="B30" s="95"/>
       <c r="C30" s="85"/>
-      <c r="D30" s="142">
+      <c r="D30" s="97">
         <v>1</v>
       </c>
-      <c r="E30" s="140" t="s">
+      <c r="E30" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="143"/>
-      <c r="G30" s="136"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="91"/>
       <c r="H30" s="51"/>
     </row>
     <row r="31" spans="2:8" ht="30">
-      <c r="B31" s="140"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="85"/>
-      <c r="D31" s="142">
+      <c r="D31" s="97">
         <v>2</v>
       </c>
-      <c r="E31" s="140" t="s">
+      <c r="E31" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="143" t="s">
+      <c r="F31" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="G31" s="136"/>
+      <c r="G31" s="91"/>
       <c r="H31" s="51"/>
     </row>
     <row r="32" spans="2:8" ht="30">
-      <c r="B32" s="140"/>
+      <c r="B32" s="95"/>
       <c r="C32" s="85"/>
-      <c r="D32" s="142">
+      <c r="D32" s="97">
         <v>3</v>
       </c>
-      <c r="E32" s="140" t="s">
+      <c r="E32" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="137" t="s">
+      <c r="F32" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="G32" s="136"/>
+      <c r="G32" s="91"/>
       <c r="H32" s="51"/>
     </row>
     <row r="33" spans="2:8" ht="30">
-      <c r="B33" s="140"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="85"/>
-      <c r="D33" s="142">
+      <c r="D33" s="97">
         <v>4</v>
       </c>
-      <c r="E33" s="140" t="s">
+      <c r="E33" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="F33" s="143" t="s">
+      <c r="F33" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="136"/>
+      <c r="G33" s="91"/>
       <c r="H33" s="51"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="140"/>
+      <c r="B34" s="95"/>
       <c r="C34" s="85"/>
-      <c r="D34" s="142">
+      <c r="D34" s="97">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E34" s="140" t="s">
+      <c r="E34" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="137"/>
-      <c r="G34" s="136"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="51"/>
     </row>
     <row r="35" spans="2:8" ht="30">
-      <c r="B35" s="140"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="85"/>
-      <c r="D35" s="142" t="s">
+      <c r="D35" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="140" t="s">
+      <c r="E35" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="137"/>
-      <c r="G35" s="136"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="91"/>
       <c r="H35" s="51"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="140"/>
+      <c r="B36" s="95"/>
       <c r="C36" s="85"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="136"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="91"/>
       <c r="H36" s="51"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="140"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="85"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="136"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="91"/>
       <c r="H37" s="51"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="140"/>
+      <c r="B38" s="95"/>
       <c r="C38" s="85"/>
-      <c r="D38" s="142">
+      <c r="D38" s="97">
         <v>5.2</v>
       </c>
-      <c r="E38" s="140" t="s">
+      <c r="E38" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="137"/>
-      <c r="G38" s="136"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="91"/>
       <c r="H38" s="51"/>
     </row>
     <row r="39" spans="2:8" ht="30">
-      <c r="B39" s="140"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="85"/>
-      <c r="D39" s="142" t="s">
+      <c r="D39" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="E39" s="140" t="s">
+      <c r="E39" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="137"/>
-      <c r="G39" s="136"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="91"/>
       <c r="H39" s="85" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="140"/>
+      <c r="B40" s="95"/>
       <c r="C40" s="85"/>
-      <c r="D40" s="142" t="s">
+      <c r="D40" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="E40" s="140" t="s">
+      <c r="E40" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="137"/>
-      <c r="G40" s="136"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="91"/>
       <c r="H40" s="51"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="140"/>
+      <c r="B41" s="95"/>
       <c r="C41" s="85"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="136"/>
+      <c r="D41" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="92"/>
+      <c r="G41" s="91"/>
       <c r="H41" s="51"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="140"/>
+      <c r="B42" s="95"/>
       <c r="C42" s="85"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="136"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="91"/>
       <c r="H42" s="51"/>
     </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="140"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="136"/>
+    <row r="43" spans="2:8" ht="30">
+      <c r="B43" s="95">
+        <v>5</v>
+      </c>
+      <c r="C43" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="97">
+        <v>0</v>
+      </c>
+      <c r="E43" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="92"/>
+      <c r="G43" s="91"/>
       <c r="H43" s="51"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="140"/>
+      <c r="B44" s="95"/>
       <c r="C44" s="85"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="136"/>
+      <c r="D44" s="97">
+        <v>1</v>
+      </c>
+      <c r="E44" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="98"/>
+      <c r="G44" s="91"/>
       <c r="H44" s="51"/>
     </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="140"/>
+    <row r="45" spans="2:8" ht="30">
+      <c r="B45" s="95"/>
       <c r="C45" s="85"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="136"/>
+      <c r="D45" s="97">
+        <v>2</v>
+      </c>
+      <c r="E45" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="91"/>
       <c r="H45" s="51"/>
     </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="140"/>
+    <row r="46" spans="2:8" ht="30">
+      <c r="B46" s="95"/>
       <c r="C46" s="85"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="136"/>
+      <c r="D46" s="97">
+        <v>3</v>
+      </c>
+      <c r="E46" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="91"/>
       <c r="H46" s="51"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="140"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="85"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="140"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="136"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="91"/>
       <c r="H47" s="51"/>
     </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="140"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="140"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="136"/>
+    <row r="48" spans="2:8" ht="30">
+      <c r="B48" s="95">
+        <v>6</v>
+      </c>
+      <c r="C48" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="97">
+        <v>0</v>
+      </c>
+      <c r="E48" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="92"/>
+      <c r="G48" s="91"/>
       <c r="H48" s="51"/>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="140"/>
+      <c r="B49" s="95"/>
       <c r="C49" s="85"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="136"/>
+      <c r="D49" s="97">
+        <v>1</v>
+      </c>
+      <c r="E49" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="98"/>
+      <c r="G49" s="91"/>
       <c r="H49" s="51"/>
     </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="140"/>
+    <row r="50" spans="2:8" ht="30">
+      <c r="B50" s="95"/>
       <c r="C50" s="85"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="136"/>
+      <c r="D50" s="97">
+        <v>2</v>
+      </c>
+      <c r="E50" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="91"/>
       <c r="H50" s="51"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="140"/>
+      <c r="B51" s="95"/>
       <c r="C51" s="85"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="140"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="136"/>
+      <c r="D51" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="G51" s="91"/>
       <c r="H51" s="51"/>
     </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="140"/>
+    <row r="52" spans="2:8" ht="45">
+      <c r="B52" s="95"/>
       <c r="C52" s="85"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="136"/>
+      <c r="D52" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="95"/>
+      <c r="F52" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="G52" s="91"/>
       <c r="H52" s="51"/>
     </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="140"/>
+    <row r="53" spans="2:8" ht="30">
+      <c r="B53" s="95"/>
       <c r="C53" s="85"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="136"/>
+      <c r="D53" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="95"/>
+      <c r="F53" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="G53" s="91"/>
       <c r="H53" s="51"/>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="140"/>
+      <c r="B54" s="95"/>
       <c r="C54" s="85"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="136"/>
+      <c r="D54" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="95"/>
+      <c r="F54" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="G54" s="91"/>
       <c r="H54" s="51"/>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="140"/>
+      <c r="B55" s="95"/>
       <c r="C55" s="85"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="136"/>
+      <c r="D55" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" s="92"/>
+      <c r="G55" s="91"/>
       <c r="H55" s="51"/>
     </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="140"/>
+    <row r="56" spans="2:8" ht="45">
+      <c r="B56" s="95"/>
       <c r="C56" s="85"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="136"/>
+      <c r="D56" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="95"/>
+      <c r="F56" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" s="91"/>
       <c r="H56" s="51"/>
     </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="140"/>
+    <row r="57" spans="2:8" ht="30">
+      <c r="B57" s="95"/>
       <c r="C57" s="85"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="136"/>
+      <c r="D57" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="95"/>
+      <c r="F57" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" s="91"/>
       <c r="H57" s="51"/>
     </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="140"/>
+    <row r="58" spans="2:8" ht="30">
+      <c r="B58" s="95"/>
       <c r="C58" s="85"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="137"/>
-      <c r="G58" s="136"/>
+      <c r="D58" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="95"/>
+      <c r="F58" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="G58" s="91"/>
       <c r="H58" s="51"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="140"/>
+      <c r="B59" s="95"/>
       <c r="C59" s="85"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="136"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="91"/>
       <c r="H59" s="51"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="140"/>
+      <c r="B60" s="95"/>
       <c r="C60" s="85"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="136"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="91"/>
       <c r="H60" s="51"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="140"/>
+      <c r="B61" s="95"/>
       <c r="C61" s="85"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="136"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="91"/>
       <c r="H61" s="51"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="140"/>
+      <c r="B62" s="95"/>
       <c r="C62" s="85"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="137"/>
-      <c r="G62" s="136"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="91"/>
       <c r="H62" s="51"/>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="140"/>
+      <c r="B63" s="95"/>
       <c r="C63" s="85"/>
-      <c r="D63" s="142"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="137"/>
-      <c r="G63" s="136"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="91"/>
       <c r="H63" s="51"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="140"/>
+      <c r="B64" s="95"/>
       <c r="C64" s="85"/>
-      <c r="D64" s="142"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="137"/>
-      <c r="G64" s="136"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="91"/>
       <c r="H64" s="51"/>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="140"/>
+      <c r="B65" s="95"/>
       <c r="C65" s="85"/>
-      <c r="D65" s="142"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="137"/>
-      <c r="G65" s="136"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="91"/>
       <c r="H65" s="51"/>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="140"/>
+      <c r="B66" s="95"/>
       <c r="C66" s="85"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="140"/>
-      <c r="F66" s="137"/>
-      <c r="G66" s="136"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="91"/>
       <c r="H66" s="51"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="140"/>
+      <c r="B67" s="95"/>
       <c r="C67" s="85"/>
-      <c r="D67" s="142"/>
-      <c r="E67" s="140"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="136"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="91"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="140"/>
+      <c r="B68" s="95"/>
       <c r="C68" s="85"/>
-      <c r="D68" s="142"/>
-      <c r="E68" s="140"/>
-      <c r="F68" s="137"/>
-      <c r="G68" s="136"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="91"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="140"/>
+      <c r="B69" s="95"/>
       <c r="C69" s="85"/>
-      <c r="D69" s="142"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="137"/>
-      <c r="G69" s="136"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="91"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="140"/>
+      <c r="B70" s="95"/>
       <c r="C70" s="85"/>
-      <c r="D70" s="142"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="137"/>
-      <c r="G70" s="136"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="91"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="140"/>
+      <c r="B71" s="95"/>
       <c r="C71" s="85"/>
-      <c r="D71" s="142"/>
-      <c r="E71" s="140"/>
-      <c r="F71" s="137"/>
-      <c r="G71" s="136"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="91"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="140"/>
+      <c r="B72" s="95"/>
       <c r="C72" s="85"/>
-      <c r="D72" s="142"/>
-      <c r="E72" s="140"/>
-      <c r="F72" s="137"/>
-      <c r="G72" s="136"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="91"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="140"/>
+      <c r="B73" s="95"/>
       <c r="C73" s="85"/>
-      <c r="D73" s="142"/>
-      <c r="E73" s="140"/>
-      <c r="F73" s="137"/>
-      <c r="G73" s="136"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="91"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="140"/>
+      <c r="B74" s="95"/>
       <c r="C74" s="85"/>
-      <c r="D74" s="142"/>
-      <c r="E74" s="140"/>
-      <c r="F74" s="137"/>
-      <c r="G74" s="136"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="91"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="140"/>
+      <c r="B75" s="95"/>
       <c r="C75" s="85"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="140"/>
-      <c r="F75" s="137"/>
-      <c r="G75" s="136"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="91"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="140"/>
+      <c r="B76" s="95"/>
       <c r="C76" s="85"/>
-      <c r="D76" s="142"/>
-      <c r="E76" s="140"/>
-      <c r="F76" s="137"/>
-      <c r="G76" s="136"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="91"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="140"/>
+      <c r="B77" s="95"/>
       <c r="C77" s="85"/>
-      <c r="D77" s="142"/>
-      <c r="E77" s="140"/>
-      <c r="F77" s="137"/>
-      <c r="G77" s="136"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="91"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="140"/>
+      <c r="B78" s="95"/>
       <c r="C78" s="85"/>
-      <c r="D78" s="142"/>
-      <c r="E78" s="140"/>
-      <c r="F78" s="137"/>
-      <c r="G78" s="136"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="91"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="140"/>
+      <c r="B79" s="95"/>
       <c r="C79" s="85"/>
-      <c r="D79" s="142"/>
-      <c r="E79" s="140"/>
-      <c r="F79" s="137"/>
-      <c r="G79" s="136"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="91"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="140"/>
+      <c r="B80" s="95"/>
       <c r="C80" s="85"/>
-      <c r="D80" s="142"/>
-      <c r="E80" s="140"/>
-      <c r="F80" s="137"/>
-      <c r="G80" s="136"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="95"/>
+      <c r="F80" s="92"/>
+      <c r="G80" s="91"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="140"/>
+      <c r="B81" s="95"/>
       <c r="C81" s="85"/>
-      <c r="D81" s="142"/>
-      <c r="E81" s="140"/>
-      <c r="F81" s="137"/>
-      <c r="G81" s="136"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="95"/>
+      <c r="F81" s="92"/>
+      <c r="G81" s="91"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="140"/>
+      <c r="B82" s="95"/>
       <c r="C82" s="85"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="140"/>
-      <c r="F82" s="137"/>
-      <c r="G82" s="136"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="92"/>
+      <c r="G82" s="91"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="140"/>
+      <c r="B83" s="95"/>
       <c r="C83" s="85"/>
-      <c r="D83" s="142"/>
-      <c r="E83" s="140"/>
-      <c r="F83" s="137"/>
-      <c r="G83" s="136"/>
+      <c r="D83" s="97"/>
+      <c r="E83" s="95"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="91"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="140"/>
+      <c r="B84" s="95"/>
       <c r="C84" s="85"/>
-      <c r="D84" s="142"/>
-      <c r="E84" s="140"/>
-      <c r="F84" s="137"/>
-      <c r="G84" s="136"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="95"/>
+      <c r="F84" s="92"/>
+      <c r="G84" s="91"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="140"/>
+      <c r="B85" s="95"/>
       <c r="C85" s="85"/>
-      <c r="D85" s="142"/>
-      <c r="E85" s="140"/>
-      <c r="F85" s="137"/>
-      <c r="G85" s="136"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="95"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="91"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="140"/>
+      <c r="B86" s="95"/>
       <c r="C86" s="85"/>
-      <c r="D86" s="142"/>
-      <c r="E86" s="140"/>
-      <c r="F86" s="137"/>
-      <c r="G86" s="136"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="91"/>
       <c r="H86" s="51"/>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="140"/>
+      <c r="B87" s="95"/>
       <c r="C87" s="85"/>
-      <c r="D87" s="142"/>
-      <c r="E87" s="140"/>
-      <c r="F87" s="137"/>
-      <c r="G87" s="136"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="95"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="91"/>
       <c r="H87" s="51"/>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="141"/>
+      <c r="B88" s="96"/>
       <c r="C88" s="51"/>
       <c r="D88" s="83"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="138"/>
+      <c r="E88" s="96"/>
+      <c r="F88" s="93"/>
       <c r="G88" s="69"/>
       <c r="H88" s="51"/>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="141"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="51"/>
       <c r="D89" s="83"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="138"/>
+      <c r="E89" s="96"/>
+      <c r="F89" s="93"/>
       <c r="G89" s="69"/>
       <c r="H89" s="51"/>
     </row>

--- a/EKtracking/TestCases-EKTRACKING phase.xlsx
+++ b/EKtracking/TestCases-EKTRACKING phase.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="198">
   <si>
     <t>Project Test Document</t>
   </si>
@@ -629,6 +629,9 @@
   </si>
   <si>
     <t>the member user should not be able to update the team profile.</t>
+  </si>
+  <si>
+    <t>fghgfhgfhfh</t>
   </si>
 </sst>
 </file>
@@ -1427,12 +1430,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1451,32 +1454,35 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1502,9 +1508,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1525,12 +1528,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1543,6 +1540,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1916,246 +1919,235 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16">
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
     </row>
     <row r="4" spans="3:16">
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
     </row>
     <row r="5" spans="3:16">
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
     </row>
     <row r="6" spans="3:16">
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99" t="s">
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
     </row>
     <row r="8" spans="3:16">
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99" t="s">
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
     </row>
     <row r="9" spans="3:16">
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99" t="s">
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
     </row>
     <row r="10" spans="3:16">
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99" t="s">
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
     </row>
     <row r="11" spans="3:16">
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
     </row>
     <row r="12" spans="3:16">
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
     </row>
     <row r="13" spans="3:16">
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99" t="s">
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
     </row>
     <row r="14" spans="3:16">
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:P5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:P6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:P7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:P8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:P9"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="G13:P13"/>
     <mergeCell ref="C14:F14"/>
@@ -2166,6 +2158,17 @@
     <mergeCell ref="G11:P11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="G12:P12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:P8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:P9"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:P5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:P6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2311,26 +2314,26 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="3:10">
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="3:10" ht="16.5">
       <c r="C5" s="7" t="s">
@@ -2359,13 +2362,13 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C6" s="113">
+      <c r="C6" s="108">
         <v>1</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="109" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -2379,9 +2382,9 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="3:10" ht="16.5">
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="13" t="s">
         <v>39</v>
       </c>
@@ -2393,9 +2396,9 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="3:10" ht="16.5">
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="16" t="s">
         <v>41</v>
       </c>
@@ -2409,13 +2412,13 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C9" s="109">
+      <c r="C9" s="110">
         <v>2</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="110"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="20" t="s">
         <v>37</v>
       </c>
@@ -2427,9 +2430,9 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="3:10" ht="16.5">
-      <c r="C10" s="109"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="23" t="s">
         <v>39</v>
       </c>
@@ -2441,9 +2444,9 @@
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="3:10" ht="16.5">
-      <c r="C11" s="109"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="16" t="s">
         <v>41</v>
       </c>
@@ -2457,13 +2460,13 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="3:10" ht="16.5">
-      <c r="C12" s="107">
+      <c r="C12" s="113">
         <v>3</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="114" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="26" t="s">
@@ -2477,9 +2480,9 @@
       <c r="J12" s="28"/>
     </row>
     <row r="13" spans="3:10" ht="16.5">
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="23" t="s">
         <v>39</v>
       </c>
@@ -2491,9 +2494,9 @@
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="3:10" ht="33">
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="23" t="s">
         <v>41</v>
       </c>
@@ -2507,13 +2510,13 @@
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="3:10" ht="33" customHeight="1">
-      <c r="C15" s="109">
+      <c r="C15" s="110">
         <v>4</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="111"/>
+      <c r="E15" s="115"/>
       <c r="F15" s="20" t="s">
         <v>37</v>
       </c>
@@ -2525,9 +2528,9 @@
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="3:10" ht="16.5">
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="115"/>
       <c r="F16" s="23" t="s">
         <v>39</v>
       </c>
@@ -2541,9 +2544,9 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10" ht="16.5">
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="115"/>
       <c r="F17" s="13" t="s">
         <v>41</v>
       </c>
@@ -2557,9 +2560,9 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10" ht="16.5">
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="111"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="115"/>
       <c r="F18" s="16" t="s">
         <v>55</v>
       </c>
@@ -2588,6 +2591,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
     <mergeCell ref="C3:J4"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
@@ -2595,12 +2604,6 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -2651,26 +2654,26 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="3:10" ht="16.5">
       <c r="C5" s="35" t="s">
@@ -2699,67 +2702,67 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C6" s="109">
+      <c r="C6" s="110">
         <v>1</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="119" t="s">
+      <c r="F6" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="120" t="s">
+      <c r="G6" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="121"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="122"/>
     </row>
     <row r="7" spans="3:10" ht="49.5" customHeight="1">
-      <c r="C7" s="109"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="121"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="122"/>
     </row>
     <row r="8" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C8" s="109"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="122" t="s">
+      <c r="C8" s="110"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="123" t="s">
+      <c r="G8" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="123" t="s">
+      <c r="H8" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="122"/>
-      <c r="J8" s="124"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="116"/>
     </row>
     <row r="9" spans="3:10" ht="126.75" customHeight="1">
-      <c r="C9" s="109"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="124"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="116"/>
     </row>
     <row r="10" spans="3:10" ht="71.25" customHeight="1">
-      <c r="C10" s="109"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="116" t="s">
+      <c r="C10" s="110"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="117" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="37" t="s">
@@ -2775,9 +2778,9 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="3:10" ht="137.25" customHeight="1">
-      <c r="C11" s="109"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="116"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="38" t="s">
         <v>73</v>
       </c>
@@ -2791,9 +2794,9 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="3:10" ht="52.5" customHeight="1">
-      <c r="C12" s="109"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="117" t="s">
+      <c r="C12" s="110"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="118" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="37" t="s">
@@ -2809,9 +2812,9 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="3:10" ht="62.25" customHeight="1">
-      <c r="C13" s="109"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="117"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="39" t="s">
         <v>80</v>
       </c>
@@ -2825,9 +2828,9 @@
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="3:10" ht="33">
-      <c r="C14" s="109"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="107"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="37" t="s">
         <v>82</v>
       </c>
@@ -2841,9 +2844,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="3:10" ht="33">
-      <c r="C15" s="109"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="107"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="39" t="s">
         <v>85</v>
       </c>
@@ -2857,8 +2860,8 @@
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="3:10" ht="16.5">
-      <c r="C16" s="109"/>
-      <c r="D16" s="118"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="40" t="s">
         <v>88</v>
       </c>
@@ -2873,8 +2876,8 @@
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="3:10" ht="16.5">
-      <c r="C17" s="109"/>
-      <c r="D17" s="118"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="40"/>
       <c r="F17" s="19">
         <v>6</v>
@@ -2887,8 +2890,8 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="3:10" ht="16.5">
-      <c r="C18" s="109"/>
-      <c r="D18" s="118"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="40" t="s">
         <v>88</v>
       </c>
@@ -2904,6 +2907,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
@@ -2920,7 +2924,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -3365,10 +3368,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.2" customHeight="1">
-      <c r="B5" s="134">
+      <c r="B5" s="132">
         <v>1</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="133" t="s">
         <v>95</v>
       </c>
       <c r="D5" s="46">
@@ -3384,30 +3387,30 @@
       <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="136"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="137">
+      <c r="A6" s="134"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="135">
         <v>2</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
     </row>
     <row r="7" spans="1:8" ht="3.6" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="50"/>
@@ -3419,10 +3422,10 @@
       <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="132">
+      <c r="B9" s="137">
         <v>2</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="137" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="46">
@@ -3438,8 +3441,8 @@
       <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="46">
         <v>2</v>
       </c>
@@ -3462,10 +3465,10 @@
       <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:8" ht="45">
-      <c r="B12" s="132">
+      <c r="B12" s="137">
         <v>3</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="138" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="46">
@@ -3479,8 +3482,8 @@
       <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="132"/>
-      <c r="C13" s="133"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="46" t="s">
         <v>70</v>
       </c>
@@ -3492,8 +3495,8 @@
       <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" ht="45">
-      <c r="B14" s="132"/>
-      <c r="C14" s="133"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="46" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3510,8 @@
       <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="132"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="46" t="s">
         <v>77</v>
       </c>
@@ -3520,8 +3523,8 @@
       <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:8" ht="45">
-      <c r="B16" s="132"/>
-      <c r="C16" s="133"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="46" t="s">
         <v>80</v>
       </c>
@@ -3546,10 +3549,10 @@
       <c r="H17" s="47"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="132">
+      <c r="B18" s="137">
         <v>4</v>
       </c>
-      <c r="C18" s="132" t="s">
+      <c r="C18" s="137" t="s">
         <v>111</v>
       </c>
       <c r="D18" s="46">
@@ -3563,8 +3566,8 @@
       <c r="H18" s="47"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="48">
         <v>2</v>
       </c>
@@ -3588,6 +3591,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -3597,12 +3606,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -3675,10 +3678,10 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="132">
+      <c r="B5" s="137">
         <v>1</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="138" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="46">
@@ -4334,10 +4337,10 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="132">
+      <c r="B5" s="137">
         <v>1</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="138" t="s">
         <v>135</v>
       </c>
       <c r="D5" s="83">
@@ -4399,10 +4402,10 @@
       <c r="H9" s="69"/>
     </row>
     <row r="10" spans="2:8" ht="30">
-      <c r="B10" s="132">
+      <c r="B10" s="137">
         <v>2</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="138" t="s">
         <v>138</v>
       </c>
       <c r="D10" s="83">
@@ -4799,7 +4802,7 @@
   <dimension ref="B2:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5613,7 +5616,9 @@
       <c r="B61" s="95"/>
       <c r="C61" s="85"/>
       <c r="D61" s="97"/>
-      <c r="E61" s="95"/>
+      <c r="E61" s="95" t="s">
+        <v>197</v>
+      </c>
       <c r="F61" s="92"/>
       <c r="G61" s="91"/>
       <c r="H61" s="51"/>

--- a/EKtracking/TestCases-EKTRACKING phase.xlsx
+++ b/EKtracking/TestCases-EKTRACKING phase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Doc\EKtracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Documents\EKtracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="197">
   <si>
     <t>Project Test Document</t>
   </si>
@@ -629,9 +629,6 @@
   </si>
   <si>
     <t>the member user should not be able to update the team profile.</t>
-  </si>
-  <si>
-    <t>fghgfhgfhfh</t>
   </si>
 </sst>
 </file>
@@ -1430,12 +1427,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1454,6 +1451,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1463,23 +1475,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1503,9 +1503,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1528,6 +1525,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1540,12 +1543,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1919,235 +1916,246 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16">
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
     </row>
     <row r="4" spans="3:16">
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="3:16">
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100" t="s">
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
     </row>
     <row r="6" spans="3:16">
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100" t="s">
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100" t="s">
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
     </row>
     <row r="8" spans="3:16">
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100" t="s">
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
     </row>
     <row r="9" spans="3:16">
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100" t="s">
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
     </row>
     <row r="10" spans="3:16">
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100" t="s">
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
     </row>
     <row r="11" spans="3:16">
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
     </row>
     <row r="12" spans="3:16">
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
     </row>
     <row r="13" spans="3:16">
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100" t="s">
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
     </row>
     <row r="14" spans="3:16">
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:P5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:P6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:P8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:P9"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="G13:P13"/>
     <mergeCell ref="C14:F14"/>
@@ -2158,17 +2166,6 @@
     <mergeCell ref="G11:P11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="G12:P12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:P7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:P8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:P9"/>
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:P5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:P6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2314,26 +2311,26 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="3:10">
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
     </row>
     <row r="5" spans="3:10" ht="16.5">
       <c r="C5" s="7" t="s">
@@ -2362,13 +2359,13 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C6" s="108">
+      <c r="C6" s="113">
         <v>1</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="114" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -2382,9 +2379,9 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="3:10" ht="16.5">
-      <c r="C7" s="108"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
       <c r="F7" s="13" t="s">
         <v>39</v>
       </c>
@@ -2396,9 +2393,9 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="3:10" ht="16.5">
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="16" t="s">
         <v>41</v>
       </c>
@@ -2412,13 +2409,13 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C9" s="110">
+      <c r="C9" s="109">
         <v>2</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="112"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="20" t="s">
         <v>37</v>
       </c>
@@ -2430,9 +2427,9 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="3:10" ht="16.5">
-      <c r="C10" s="110"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="112"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="23" t="s">
         <v>39</v>
       </c>
@@ -2444,9 +2441,9 @@
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="3:10" ht="16.5">
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="16" t="s">
         <v>41</v>
       </c>
@@ -2460,13 +2457,13 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="3:10" ht="16.5">
-      <c r="C12" s="113">
+      <c r="C12" s="107">
         <v>3</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="108" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="26" t="s">
@@ -2480,9 +2477,9 @@
       <c r="J12" s="28"/>
     </row>
     <row r="13" spans="3:10" ht="16.5">
-      <c r="C13" s="113"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="23" t="s">
         <v>39</v>
       </c>
@@ -2494,9 +2491,9 @@
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="3:10" ht="33">
-      <c r="C14" s="113"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="23" t="s">
         <v>41</v>
       </c>
@@ -2510,13 +2507,13 @@
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="3:10" ht="33" customHeight="1">
-      <c r="C15" s="110">
+      <c r="C15" s="109">
         <v>4</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="115"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="20" t="s">
         <v>37</v>
       </c>
@@ -2528,9 +2525,9 @@
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="3:10" ht="16.5">
-      <c r="C16" s="110"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="115"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="23" t="s">
         <v>39</v>
       </c>
@@ -2544,9 +2541,9 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10" ht="16.5">
-      <c r="C17" s="110"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="115"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="13" t="s">
         <v>41</v>
       </c>
@@ -2560,9 +2557,9 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10" ht="16.5">
-      <c r="C18" s="110"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="115"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="16" t="s">
         <v>55</v>
       </c>
@@ -2591,12 +2588,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
     <mergeCell ref="C3:J4"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
@@ -2604,6 +2595,12 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -2654,26 +2651,26 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
     </row>
     <row r="5" spans="3:10" ht="16.5">
       <c r="C5" s="35" t="s">
@@ -2702,42 +2699,42 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C6" s="110">
+      <c r="C6" s="109">
         <v>1</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="120" t="s">
+      <c r="F6" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="121" t="s">
+      <c r="H6" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="122"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="3:10" ht="49.5" customHeight="1">
-      <c r="C7" s="110"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="122"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C8" s="110"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="123" t="s">
+      <c r="C8" s="109"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="116" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="124" t="s">
@@ -2746,23 +2743,23 @@
       <c r="H8" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="123"/>
-      <c r="J8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
     </row>
     <row r="9" spans="3:10" ht="126.75" customHeight="1">
-      <c r="C9" s="110"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="123"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="116"/>
       <c r="G9" s="124"/>
       <c r="H9" s="124"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
     </row>
     <row r="10" spans="3:10" ht="71.25" customHeight="1">
-      <c r="C10" s="110"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="117" t="s">
+      <c r="C10" s="109"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="118" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="37" t="s">
@@ -2778,9 +2775,9 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="3:10" ht="137.25" customHeight="1">
-      <c r="C11" s="110"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="117"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="38" t="s">
         <v>73</v>
       </c>
@@ -2794,9 +2791,9 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="3:10" ht="52.5" customHeight="1">
-      <c r="C12" s="110"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="118" t="s">
+      <c r="C12" s="109"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="119" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="37" t="s">
@@ -2812,9 +2809,9 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="3:10" ht="62.25" customHeight="1">
-      <c r="C13" s="110"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="118"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="119"/>
       <c r="F13" s="39" t="s">
         <v>80</v>
       </c>
@@ -2828,9 +2825,9 @@
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="3:10" ht="33">
-      <c r="C14" s="110"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="113"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="37" t="s">
         <v>82</v>
       </c>
@@ -2844,9 +2841,9 @@
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="3:10" ht="33">
-      <c r="C15" s="110"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="113"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="39" t="s">
         <v>85</v>
       </c>
@@ -2860,8 +2857,8 @@
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="3:10" ht="16.5">
-      <c r="C16" s="110"/>
-      <c r="D16" s="119"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="40" t="s">
         <v>88</v>
       </c>
@@ -2876,8 +2873,8 @@
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="3:10" ht="16.5">
-      <c r="C17" s="110"/>
-      <c r="D17" s="119"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="40"/>
       <c r="F17" s="19">
         <v>6</v>
@@ -2890,8 +2887,8 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="3:10" ht="16.5">
-      <c r="C18" s="110"/>
-      <c r="D18" s="119"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="40" t="s">
         <v>88</v>
       </c>
@@ -2907,11 +2904,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="C3:J4"/>
     <mergeCell ref="C6:C18"/>
     <mergeCell ref="D6:D18"/>
@@ -2924,6 +2916,11 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -3368,10 +3365,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.2" customHeight="1">
-      <c r="B5" s="132">
+      <c r="B5" s="134">
         <v>1</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="135" t="s">
         <v>95</v>
       </c>
       <c r="D5" s="46">
@@ -3387,30 +3384,30 @@
       <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="134"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="135">
+      <c r="A6" s="136"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="137">
         <v>2</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
     </row>
     <row r="7" spans="1:8" ht="3.6" customHeight="1">
-      <c r="A7" s="134"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="50"/>
@@ -3422,10 +3419,10 @@
       <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="137">
+      <c r="B9" s="132">
         <v>2</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="132" t="s">
         <v>100</v>
       </c>
       <c r="D9" s="46">
@@ -3441,8 +3438,8 @@
       <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="46">
         <v>2</v>
       </c>
@@ -3465,10 +3462,10 @@
       <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:8" ht="45">
-      <c r="B12" s="137">
+      <c r="B12" s="132">
         <v>3</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="133" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="46">
@@ -3482,8 +3479,8 @@
       <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="137"/>
-      <c r="C13" s="138"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="46" t="s">
         <v>70</v>
       </c>
@@ -3495,8 +3492,8 @@
       <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" ht="45">
-      <c r="B14" s="137"/>
-      <c r="C14" s="138"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="46" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3507,8 @@
       <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="137"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="46" t="s">
         <v>77</v>
       </c>
@@ -3523,8 +3520,8 @@
       <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:8" ht="45">
-      <c r="B16" s="137"/>
-      <c r="C16" s="138"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="46" t="s">
         <v>80</v>
       </c>
@@ -3549,10 +3546,10 @@
       <c r="H17" s="47"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="137">
+      <c r="B18" s="132">
         <v>4</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="132" t="s">
         <v>111</v>
       </c>
       <c r="D18" s="46">
@@ -3566,8 +3563,8 @@
       <c r="H18" s="47"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
       <c r="D19" s="48">
         <v>2</v>
       </c>
@@ -3591,12 +3588,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -3606,6 +3597,12 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -3678,10 +3675,10 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="137">
+      <c r="B5" s="132">
         <v>1</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="133" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="46">
@@ -4337,10 +4334,10 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="137">
+      <c r="B5" s="132">
         <v>1</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="133" t="s">
         <v>135</v>
       </c>
       <c r="D5" s="83">
@@ -4402,10 +4399,10 @@
       <c r="H9" s="69"/>
     </row>
     <row r="10" spans="2:8" ht="30">
-      <c r="B10" s="137">
+      <c r="B10" s="132">
         <v>2</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="133" t="s">
         <v>138</v>
       </c>
       <c r="D10" s="83">
@@ -4801,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5616,9 +5613,7 @@
       <c r="B61" s="95"/>
       <c r="C61" s="85"/>
       <c r="D61" s="97"/>
-      <c r="E61" s="95" t="s">
-        <v>197</v>
-      </c>
+      <c r="E61" s="95"/>
       <c r="F61" s="92"/>
       <c r="G61" s="91"/>
       <c r="H61" s="51"/>

--- a/EKtracking/TestCases-EKTRACKING phase.xlsx
+++ b/EKtracking/TestCases-EKTRACKING phase.xlsx
@@ -176,9 +176,6 @@
     <t>Proper Prompt(User is already Logged in another device)</t>
   </si>
   <si>
-    <t>Validate that if the user forget password he can recover it.</t>
-  </si>
-  <si>
     <t>Click/Select "Forgot Password"(or any equivalent option)</t>
   </si>
   <si>
@@ -629,6 +626,9 @@
   </si>
   <si>
     <t>the member user should not be able to update the team profile.</t>
+  </si>
+  <si>
+    <t>Validate that if the user forget password he/she can recover it.</t>
   </si>
 </sst>
 </file>
@@ -1427,12 +1427,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1451,60 +1451,60 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1525,12 +1525,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1543,6 +1537,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1908,7 +1908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:P14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1916,246 +1918,235 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16">
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
     </row>
     <row r="4" spans="3:16">
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
     </row>
     <row r="5" spans="3:16">
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
     </row>
     <row r="6" spans="3:16">
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
     </row>
     <row r="7" spans="3:16">
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99" t="s">
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
     </row>
     <row r="8" spans="3:16">
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99" t="s">
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
     </row>
     <row r="9" spans="3:16">
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99" t="s">
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
     </row>
     <row r="10" spans="3:16">
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99" t="s">
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
     </row>
     <row r="11" spans="3:16">
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
     </row>
     <row r="12" spans="3:16">
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
     </row>
     <row r="13" spans="3:16">
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99" t="s">
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
     </row>
     <row r="14" spans="3:16">
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C3:P4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:P5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:P6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:P7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:P8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:P9"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="G13:P13"/>
     <mergeCell ref="C14:F14"/>
@@ -2166,6 +2157,17 @@
     <mergeCell ref="G11:P11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="G12:P12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:P7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:P8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:P9"/>
+    <mergeCell ref="C3:P4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:P5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:P6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2275,7 +2277,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2311,26 +2315,26 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="3:10">
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="3:10" ht="16.5">
       <c r="C5" s="7" t="s">
@@ -2359,13 +2363,13 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C6" s="113">
+      <c r="C6" s="108">
         <v>1</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="109" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -2379,9 +2383,9 @@
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="3:10" ht="16.5">
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="13" t="s">
         <v>39</v>
       </c>
@@ -2393,9 +2397,9 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="3:10" ht="16.5">
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="16" t="s">
         <v>41</v>
       </c>
@@ -2409,13 +2413,13 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C9" s="109">
+      <c r="C9" s="110">
         <v>2</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="110"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="20" t="s">
         <v>37</v>
       </c>
@@ -2427,9 +2431,9 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="3:10" ht="16.5">
-      <c r="C10" s="109"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="23" t="s">
         <v>39</v>
       </c>
@@ -2441,9 +2445,9 @@
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="3:10" ht="16.5">
-      <c r="C11" s="109"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="16" t="s">
         <v>41</v>
       </c>
@@ -2457,13 +2461,13 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="3:10" ht="16.5">
-      <c r="C12" s="107">
+      <c r="C12" s="113">
         <v>3</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="114" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="26" t="s">
@@ -2477,9 +2481,9 @@
       <c r="J12" s="28"/>
     </row>
     <row r="13" spans="3:10" ht="16.5">
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="23" t="s">
         <v>39</v>
       </c>
@@ -2491,9 +2495,9 @@
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="3:10" ht="33">
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="23" t="s">
         <v>41</v>
       </c>
@@ -2507,67 +2511,67 @@
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="3:10" ht="33" customHeight="1">
-      <c r="C15" s="109">
+      <c r="C15" s="110">
         <v>4</v>
       </c>
-      <c r="D15" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="111"/>
+      <c r="D15" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="115"/>
       <c r="F15" s="20" t="s">
         <v>37</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="3:10" ht="16.5">
-      <c r="C16" s="109"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="115"/>
       <c r="F16" s="23" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="3:10" ht="16.5">
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="115"/>
       <c r="F17" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>54</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="3:10" ht="16.5">
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="111"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="115"/>
       <c r="F18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="H18" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="18"/>
@@ -2583,11 +2587,17 @@
     </row>
     <row r="22" spans="3:10" ht="17.25">
       <c r="E22" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
     <mergeCell ref="C3:J4"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
@@ -2595,12 +2605,6 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -2614,7 +2618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2651,26 +2657,26 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C3" s="112" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
+      <c r="C3" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="3:10">
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="3:10" ht="16.5">
       <c r="C5" s="35" t="s">
@@ -2680,7 +2686,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>30</v>
@@ -2699,204 +2705,204 @@
       </c>
     </row>
     <row r="6" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C6" s="109">
+      <c r="C6" s="110">
         <v>1</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="116" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="F6" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="G6" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="122" t="s">
+      <c r="H6" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="122" t="s">
+      <c r="I6" s="118"/>
+      <c r="J6" s="120"/>
+    </row>
+    <row r="7" spans="3:10" ht="49.5" customHeight="1">
+      <c r="C7" s="110"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="120"/>
+    </row>
+    <row r="8" spans="3:10" ht="16.5" customHeight="1">
+      <c r="C8" s="110"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="123"/>
-    </row>
-    <row r="7" spans="3:10" ht="49.5" customHeight="1">
-      <c r="C7" s="109"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="123"/>
-    </row>
-    <row r="8" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C8" s="109"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="116" t="s">
+      <c r="G8" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="124" t="s">
+      <c r="H8" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="124" t="s">
+      <c r="I8" s="121"/>
+      <c r="J8" s="123"/>
+    </row>
+    <row r="9" spans="3:10" ht="126.75" customHeight="1">
+      <c r="C9" s="110"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="123"/>
+    </row>
+    <row r="10" spans="3:10" ht="71.25" customHeight="1">
+      <c r="C10" s="110"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="116"/>
-      <c r="J8" s="117"/>
-    </row>
-    <row r="9" spans="3:10" ht="126.75" customHeight="1">
-      <c r="C9" s="109"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
-    </row>
-    <row r="10" spans="3:10" ht="71.25" customHeight="1">
-      <c r="C10" s="109"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="118" t="s">
+      <c r="F10" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="G10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="H10" s="21" t="s">
         <v>71</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="3:10" ht="137.25" customHeight="1">
-      <c r="C11" s="109"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="118"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="H11" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="3:10" ht="52.5" customHeight="1">
-      <c r="C12" s="109"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="119" t="s">
+      <c r="C12" s="110"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="G12" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="3:10" ht="62.25" customHeight="1">
-      <c r="C13" s="109"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="119"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="124"/>
       <c r="F13" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="3:10" ht="33">
-      <c r="C14" s="109"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="107"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="113"/>
       <c r="F14" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="H14" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="3:10" ht="33">
-      <c r="C15" s="109"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="107"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="113"/>
       <c r="F15" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="H15" s="24" t="s">
         <v>86</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>87</v>
       </c>
       <c r="I15" s="24"/>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="3:10" ht="16.5">
-      <c r="C16" s="109"/>
-      <c r="D16" s="120"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="19">
         <v>5</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="41"/>
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="3:10" ht="16.5">
-      <c r="C17" s="109"/>
-      <c r="D17" s="120"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="40"/>
       <c r="F17" s="19">
         <v>6</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="3:10" ht="16.5">
-      <c r="C18" s="109"/>
-      <c r="D18" s="120"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="19">
         <v>7</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
@@ -2904,6 +2910,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="C3:J4"/>
     <mergeCell ref="C6:C18"/>
     <mergeCell ref="D6:D18"/>
@@ -2920,7 +2927,6 @@
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -2935,7 +2941,7 @@
   <dimension ref="A1:IV32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2965,7 +2971,7 @@
     </row>
     <row r="2" spans="2:10" s="6" customFormat="1">
       <c r="B2" s="125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="125"/>
       <c r="D2" s="125"/>
@@ -3013,13 +3019,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="56">
         <v>0</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
@@ -3032,10 +3038,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>116</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>117</v>
       </c>
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
@@ -3054,13 +3060,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="56">
         <v>0</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
@@ -3073,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
@@ -3086,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
@@ -3099,10 +3105,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="63" t="s">
         <v>122</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>123</v>
       </c>
       <c r="G11" s="61"/>
       <c r="H11" s="61"/>
@@ -3323,7 +3329,7 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="B2" s="125" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="125"/>
       <c r="D2" s="125"/>
@@ -3365,49 +3371,49 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.2" customHeight="1">
-      <c r="B5" s="134">
+      <c r="B5" s="132">
         <v>1</v>
       </c>
-      <c r="C5" s="135" t="s">
-        <v>95</v>
+      <c r="C5" s="133" t="s">
+        <v>94</v>
       </c>
       <c r="D5" s="46">
         <v>1</v>
       </c>
       <c r="E5" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="47" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>97</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="136"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="137">
+      <c r="A6" s="134"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="135">
         <v>2</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="138" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
     </row>
     <row r="7" spans="1:8" ht="3.6" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="50"/>
@@ -3419,35 +3425,35 @@
       <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="132">
+      <c r="B9" s="137">
         <v>2</v>
       </c>
-      <c r="C9" s="132" t="s">
-        <v>100</v>
+      <c r="C9" s="137" t="s">
+        <v>99</v>
       </c>
       <c r="D9" s="46">
         <v>1</v>
       </c>
       <c r="E9" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="47" t="s">
         <v>96</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>97</v>
       </c>
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="46">
         <v>2</v>
       </c>
       <c r="E10" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="47" t="s">
         <v>101</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>102</v>
       </c>
       <c r="G10" s="47"/>
       <c r="H10" s="47"/>
@@ -3462,78 +3468,78 @@
       <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:8" ht="45">
-      <c r="B12" s="132">
+      <c r="B12" s="137">
         <v>3</v>
       </c>
-      <c r="C12" s="133" t="s">
-        <v>103</v>
+      <c r="C12" s="138" t="s">
+        <v>102</v>
       </c>
       <c r="D12" s="46">
         <v>1</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="132"/>
-      <c r="C13" s="133"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
       <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" ht="45">
-      <c r="B14" s="132"/>
-      <c r="C14" s="133"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="52" t="s">
         <v>106</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>107</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="132"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:8" ht="45">
-      <c r="B16" s="132"/>
-      <c r="C16" s="133"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="47" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>109</v>
       </c>
       <c r="G16" s="47"/>
       <c r="H16" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -3546,33 +3552,33 @@
       <c r="H17" s="47"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="132">
+      <c r="B18" s="137">
         <v>4</v>
       </c>
-      <c r="C18" s="132" t="s">
-        <v>111</v>
+      <c r="C18" s="137" t="s">
+        <v>110</v>
       </c>
       <c r="D18" s="46">
         <v>1</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
       <c r="H18" s="47"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="48">
         <v>2</v>
       </c>
       <c r="E19" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="49" t="s">
         <v>113</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>114</v>
       </c>
       <c r="G19" s="49"/>
       <c r="H19" s="49"/>
@@ -3588,6 +3594,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -3597,12 +3609,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
@@ -3633,7 +3639,7 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="125"/>
       <c r="D2" s="125"/>
@@ -3675,17 +3681,17 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="132">
+      <c r="B5" s="137">
         <v>1</v>
       </c>
-      <c r="C5" s="133" t="s">
-        <v>125</v>
+      <c r="C5" s="138" t="s">
+        <v>124</v>
       </c>
       <c r="D5" s="46">
         <v>0</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="74"/>
       <c r="G5" s="74"/>
@@ -3698,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
@@ -3711,7 +3717,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="74"/>
       <c r="G7" s="74"/>
@@ -3724,10 +3730,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="74"/>
@@ -3746,13 +3752,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="46">
         <v>0</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="74"/>
       <c r="G10" s="74"/>
@@ -3765,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="74"/>
       <c r="G11" s="74"/>
@@ -3778,7 +3784,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="74"/>
       <c r="G12" s="74"/>
@@ -3791,7 +3797,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="74"/>
       <c r="G13" s="74"/>
@@ -4292,7 +4298,7 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="143" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="143"/>
       <c r="D2" s="143"/>
@@ -4334,17 +4340,17 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="30">
-      <c r="B5" s="132">
+      <c r="B5" s="137">
         <v>1</v>
       </c>
-      <c r="C5" s="133" t="s">
-        <v>135</v>
+      <c r="C5" s="138" t="s">
+        <v>134</v>
       </c>
       <c r="D5" s="83">
         <v>0</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
@@ -4357,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
@@ -4370,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
@@ -4383,7 +4389,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8" s="69"/>
       <c r="G8" s="69"/>
@@ -4399,17 +4405,17 @@
       <c r="H9" s="69"/>
     </row>
     <row r="10" spans="2:8" ht="30">
-      <c r="B10" s="132">
+      <c r="B10" s="137">
         <v>2</v>
       </c>
-      <c r="C10" s="133" t="s">
-        <v>138</v>
+      <c r="C10" s="138" t="s">
+        <v>137</v>
       </c>
       <c r="D10" s="83">
         <v>0</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="69"/>
@@ -4422,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="69"/>
       <c r="G11" s="69"/>
@@ -4435,7 +4441,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" s="69"/>
       <c r="G12" s="69"/>
@@ -4448,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F13" s="69"/>
       <c r="G13" s="69"/>
@@ -4461,7 +4467,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="69"/>
       <c r="G14" s="69"/>
@@ -4474,7 +4480,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="69"/>
       <c r="G15" s="69"/>
@@ -4494,13 +4500,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="88">
         <v>0</v>
       </c>
       <c r="E17" s="89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="69"/>
       <c r="G17" s="69"/>
@@ -4513,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="69"/>
       <c r="G18" s="69"/>
@@ -4798,7 +4804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -4815,7 +4821,7 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="143"/>
       <c r="D2" s="143"/>
@@ -4861,13 +4867,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="97">
         <v>0</v>
       </c>
       <c r="E5" s="95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="92"/>
       <c r="G5" s="91"/>
@@ -4880,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="92"/>
       <c r="G6" s="91"/>
@@ -4893,7 +4899,7 @@
         <v>2.1</v>
       </c>
       <c r="E7" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="92"/>
       <c r="G7" s="91"/>
@@ -4903,13 +4909,13 @@
       <c r="B8" s="95"/>
       <c r="C8" s="85"/>
       <c r="D8" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="95" t="s">
-        <v>149</v>
-      </c>
       <c r="F8" s="98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" s="91"/>
       <c r="H8" s="51"/>
@@ -4918,13 +4924,13 @@
       <c r="B9" s="95"/>
       <c r="C9" s="85"/>
       <c r="D9" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="95" t="s">
-        <v>151</v>
-      </c>
       <c r="F9" s="92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="91"/>
       <c r="H9" s="51"/>
@@ -4933,13 +4939,13 @@
       <c r="B10" s="95"/>
       <c r="C10" s="85"/>
       <c r="D10" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="F10" s="92" t="s">
         <v>153</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>154</v>
       </c>
       <c r="G10" s="91"/>
       <c r="H10" s="51"/>
@@ -4951,7 +4957,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" s="92"/>
       <c r="G11" s="91"/>
@@ -4961,13 +4967,13 @@
       <c r="B12" s="95"/>
       <c r="C12" s="85"/>
       <c r="D12" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="95" t="s">
-        <v>149</v>
-      </c>
       <c r="F12" s="92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" s="91"/>
       <c r="H12" s="51"/>
@@ -4976,13 +4982,13 @@
       <c r="B13" s="95"/>
       <c r="C13" s="85"/>
       <c r="D13" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="92" t="s">
         <v>153</v>
-      </c>
-      <c r="F13" s="92" t="s">
-        <v>154</v>
       </c>
       <c r="G13" s="91"/>
       <c r="H13" s="51"/>
@@ -5001,13 +5007,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="97">
         <v>0</v>
       </c>
       <c r="E15" s="95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="92"/>
       <c r="G15" s="91"/>
@@ -5020,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" s="92"/>
       <c r="G16" s="91"/>
@@ -5033,7 +5039,7 @@
         <v>2.1</v>
       </c>
       <c r="E17" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" s="92"/>
       <c r="G17" s="91"/>
@@ -5043,13 +5049,13 @@
       <c r="B18" s="95"/>
       <c r="C18" s="85"/>
       <c r="D18" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="95" t="s">
-        <v>149</v>
-      </c>
       <c r="F18" s="98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G18" s="91"/>
       <c r="H18" s="51"/>
@@ -5058,13 +5064,13 @@
       <c r="B19" s="95"/>
       <c r="C19" s="85"/>
       <c r="D19" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="95" t="s">
-        <v>151</v>
-      </c>
       <c r="F19" s="92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G19" s="91"/>
       <c r="H19" s="51"/>
@@ -5073,13 +5079,13 @@
       <c r="B20" s="95"/>
       <c r="C20" s="85"/>
       <c r="D20" s="97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="92" t="s">
         <v>159</v>
-      </c>
-      <c r="F20" s="92" t="s">
-        <v>160</v>
       </c>
       <c r="G20" s="91"/>
       <c r="H20" s="51"/>
@@ -5088,13 +5094,13 @@
       <c r="B21" s="95"/>
       <c r="C21" s="85"/>
       <c r="D21" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="F21" s="92" t="s">
         <v>162</v>
-      </c>
-      <c r="F21" s="92" t="s">
-        <v>163</v>
       </c>
       <c r="G21" s="91"/>
       <c r="H21" s="51"/>
@@ -5113,13 +5119,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="97">
         <v>0</v>
       </c>
       <c r="E23" s="95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="92"/>
       <c r="G23" s="91"/>
@@ -5132,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" s="98"/>
       <c r="G24" s="91"/>
@@ -5145,10 +5151,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G25" s="91"/>
       <c r="H25" s="51"/>
@@ -5160,10 +5166,10 @@
         <v>3</v>
       </c>
       <c r="E26" s="95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F26" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" s="91"/>
       <c r="H26" s="51"/>
@@ -5175,10 +5181,10 @@
         <v>4</v>
       </c>
       <c r="E27" s="95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F27" s="92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G27" s="91"/>
       <c r="H27" s="51"/>
@@ -5197,13 +5203,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="97">
         <v>0</v>
       </c>
       <c r="E29" s="95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="92"/>
       <c r="G29" s="91"/>
@@ -5216,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" s="98"/>
       <c r="G30" s="91"/>
@@ -5229,10 +5235,10 @@
         <v>2</v>
       </c>
       <c r="E31" s="95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G31" s="91"/>
       <c r="H31" s="51"/>
@@ -5244,10 +5250,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="92" t="s">
         <v>172</v>
-      </c>
-      <c r="F32" s="92" t="s">
-        <v>173</v>
       </c>
       <c r="G32" s="91"/>
       <c r="H32" s="51"/>
@@ -5259,10 +5265,10 @@
         <v>4</v>
       </c>
       <c r="E33" s="95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F33" s="98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G33" s="91"/>
       <c r="H33" s="51"/>
@@ -5274,7 +5280,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E34" s="95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F34" s="92"/>
       <c r="G34" s="91"/>
@@ -5284,10 +5290,10 @@
       <c r="B35" s="95"/>
       <c r="C35" s="85"/>
       <c r="D35" s="97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E35" s="95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F35" s="92"/>
       <c r="G35" s="91"/>
@@ -5318,7 +5324,7 @@
         <v>5.2</v>
       </c>
       <c r="E38" s="95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F38" s="92"/>
       <c r="G38" s="91"/>
@@ -5328,25 +5334,25 @@
       <c r="B39" s="95"/>
       <c r="C39" s="85"/>
       <c r="D39" s="97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E39" s="95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F39" s="92"/>
       <c r="G39" s="91"/>
       <c r="H39" s="85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="95"/>
       <c r="C40" s="85"/>
       <c r="D40" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" s="95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F40" s="92"/>
       <c r="G40" s="91"/>
@@ -5356,10 +5362,10 @@
       <c r="B41" s="95"/>
       <c r="C41" s="85"/>
       <c r="D41" s="97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E41" s="95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41" s="92"/>
       <c r="G41" s="91"/>
@@ -5379,13 +5385,13 @@
         <v>5</v>
       </c>
       <c r="C43" s="85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43" s="97">
         <v>0</v>
       </c>
       <c r="E43" s="95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F43" s="92"/>
       <c r="G43" s="91"/>
@@ -5398,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F44" s="98"/>
       <c r="G44" s="91"/>
@@ -5411,10 +5417,10 @@
         <v>2</v>
       </c>
       <c r="E45" s="95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F45" s="98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G45" s="91"/>
       <c r="H45" s="51"/>
@@ -5426,10 +5432,10 @@
         <v>3</v>
       </c>
       <c r="E46" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="92" t="s">
         <v>183</v>
-      </c>
-      <c r="F46" s="92" t="s">
-        <v>184</v>
       </c>
       <c r="G46" s="91"/>
       <c r="H46" s="51"/>
@@ -5448,13 +5454,13 @@
         <v>6</v>
       </c>
       <c r="C48" s="85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D48" s="97">
         <v>0</v>
       </c>
       <c r="E48" s="95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F48" s="92"/>
       <c r="G48" s="91"/>
@@ -5467,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F49" s="98"/>
       <c r="G49" s="91"/>
@@ -5480,10 +5486,10 @@
         <v>2</v>
       </c>
       <c r="E50" s="95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F50" s="98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G50" s="91"/>
       <c r="H50" s="51"/>
@@ -5492,10 +5498,10 @@
       <c r="B51" s="95"/>
       <c r="C51" s="85"/>
       <c r="D51" s="97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G51" s="91"/>
       <c r="H51" s="51"/>
@@ -5504,11 +5510,11 @@
       <c r="B52" s="95"/>
       <c r="C52" s="85"/>
       <c r="D52" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E52" s="95"/>
       <c r="F52" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G52" s="91"/>
       <c r="H52" s="51"/>
@@ -5517,11 +5523,11 @@
       <c r="B53" s="95"/>
       <c r="C53" s="85"/>
       <c r="D53" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E53" s="95"/>
       <c r="F53" s="92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="91"/>
       <c r="H53" s="51"/>
@@ -5530,11 +5536,11 @@
       <c r="B54" s="95"/>
       <c r="C54" s="85"/>
       <c r="D54" s="97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E54" s="95"/>
       <c r="F54" s="92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G54" s="91"/>
       <c r="H54" s="51"/>
@@ -5543,10 +5549,10 @@
       <c r="B55" s="95"/>
       <c r="C55" s="85"/>
       <c r="D55" s="97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55" s="95" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F55" s="92"/>
       <c r="G55" s="91"/>
@@ -5556,11 +5562,11 @@
       <c r="B56" s="95"/>
       <c r="C56" s="85"/>
       <c r="D56" s="97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E56" s="95"/>
       <c r="F56" s="92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G56" s="91"/>
       <c r="H56" s="51"/>
@@ -5569,11 +5575,11 @@
       <c r="B57" s="95"/>
       <c r="C57" s="85"/>
       <c r="D57" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E57" s="95"/>
       <c r="F57" s="92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G57" s="91"/>
       <c r="H57" s="51"/>
@@ -5582,11 +5588,11 @@
       <c r="B58" s="95"/>
       <c r="C58" s="85"/>
       <c r="D58" s="97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E58" s="95"/>
       <c r="F58" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G58" s="91"/>
       <c r="H58" s="51"/>
